--- a/biology/Zoologie/Chlorospin_des_buissons/Chlorospin_des_buissons.xlsx
+++ b/biology/Zoologie/Chlorospin_des_buissons/Chlorospin_des_buissons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorospingus flavopectus
 Le Chlorospin des buissons (Chlorospingus flavopectus, syn. C. ophthalmicus), anciennement Tangara des buissons, aussi appelé Tangara à tête brune est une espèce de passereaux de la famille des Passerellidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 13,5 cm de longueur. Son plumage est vert olive plutôt sombre pour le dos et les ailes, plus pâle pour le ventre dont le centre est blanc. La tache blanche derrière chaque œil le distingue du Chlorospin à gorge grise.
 </t>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit notamment au Costa Rica[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit notamment au Costa Rica.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les sous-bois humides des forêts entre 400 et 2 300 m d'altitude.
 </t>
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce bruyante se joint aux groupes pluri-spécifiques.
 </t>
@@ -636,7 +656,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme des fruits et des insectes.
 </t>
@@ -667,10 +689,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ornithologues soupçonnaient depuis longtemps que C. ophtalmicus était un complexe d'espèces cryptiques (deux au moins)[2].
-En 2012, la version 3.2 de la classification de référence du Congrès ornithologique international modifie son nom scientifique en Chlorospingus flavopectus (Lafresnaye, 1840), car ce nom a la priorité sur Chlorospingus ophthalmicus (Du Bus de Gisignies, 1847), Lafresnaye ayant été le premier à décrire l'espèce[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ornithologues soupçonnaient depuis longtemps que C. ophtalmicus était un complexe d'espèces cryptiques (deux au moins).
+En 2012, la version 3.2 de la classification de référence du Congrès ornithologique international modifie son nom scientifique en Chlorospingus flavopectus (Lafresnaye, 1840), car ce nom a la priorité sur Chlorospingus ophthalmicus (Du Bus de Gisignies, 1847), Lafresnaye ayant été le premier à décrire l'espèce.
 </t>
         </is>
       </c>
@@ -699,7 +723,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, cette espèce est constituée des 26 sous-espèces suivantes :
 C. o. albifrons
